--- a/Sharkspray/TestResult/CreateNewModel.xlsx
+++ b/Sharkspray/TestResult/CreateNewModel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\source\repos\sharkspray\Sharkspray\TestResult\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAHUL\Source\Repos\sharkspray_script\Sharkspray\TestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CE8143-BAFA-4FE5-A1ED-C9C9583E0D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AED022C-9D0C-4AAB-B237-8A25713CF1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="564" yWindow="2892" windowWidth="22476" windowHeight="6240" xr2:uid="{0A5129BF-4EAD-4B0D-8E14-B0D788FBD39C}"/>
+    <workbookView xWindow="5115" yWindow="0" windowWidth="15375" windowHeight="7995" xr2:uid="{0A5129BF-4EAD-4B0D-8E14-B0D788FBD39C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <r>
       <rPr>
@@ -150,6 +150,16 @@
   </si>
   <si>
     <t>Test passed successfully.</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>The expected element //*[@id='idSIButton9'] not found</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='aadTileTitle']"}
+  (Session info: chrome=91.0.4472.101)</t>
   </si>
 </sst>
 </file>
@@ -706,23 +716,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829C0B6C-D4F3-4E1C-9A9B-A99FE1333441}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="33.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="5" width="36.88671875" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="33.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -737,7 +747,7 @@
       </c>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -760,7 +770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -773,13 +783,13 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -794,13 +804,13 @@
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -814,8 +824,14 @@
         <v>24</v>
       </c>
       <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -830,13 +846,13 @@
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -850,13 +866,13 @@
         <v>24</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -870,13 +886,13 @@
         <v>24</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -896,7 +912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -913,13 +929,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -933,13 +949,13 @@
         <v>24</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -956,13 +972,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -976,18 +992,26 @@
         <v>25</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="F15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Sharkspray/TestResult/CreateNewModel.xlsx
+++ b/Sharkspray/TestResult/CreateNewModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAHUL\Source\Repos\sharkspray_script\Sharkspray\TestResult\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAHUL\source\repos\sharkspray_script\Sharkspray\TestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AED022C-9D0C-4AAB-B237-8A25713CF1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398AF87B-0EE5-43F1-BF15-B40FA27034B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5115" yWindow="0" windowWidth="15375" windowHeight="7995" xr2:uid="{0A5129BF-4EAD-4B0D-8E14-B0D788FBD39C}"/>
   </bookViews>
